--- a/2023test/Chapter14_経費申請データ.xlsx
+++ b/2023test/Chapter14_経費申請データ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\shima\888-school-online-uipath\14-経費申請-エラー処理\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gotoj\Documents\gittest\2023test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C074FE2D-BB7E-432A-BF7E-8D7ADEF03354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC335F6E-6699-44D6-90A2-F5B2CDBD5AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="348" yWindow="876" windowWidth="17256" windowHeight="8868" xr2:uid="{1EF1643A-7AA0-467F-ADB9-765D708F41F3}"/>
+    <workbookView xWindow="2184" yWindow="-11460" windowWidth="17280" windowHeight="8880" xr2:uid="{1EF1643A-7AA0-467F-ADB9-765D708F41F3}"/>
   </bookViews>
   <sheets>
     <sheet name="経費一覧" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>社員番号</t>
     <rPh sb="0" eb="2">
@@ -122,10 +122,6 @@
     <rPh sb="0" eb="2">
       <t>シンセイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>金額が未入力です</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -524,7 +520,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -579,9 +575,6 @@
       <c r="C3" s="1">
         <v>43729</v>
       </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4">

--- a/2023test/Chapter14_経費申請データ.xlsx
+++ b/2023test/Chapter14_経費申請データ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gotoj\Documents\gittest\2023test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC335F6E-6699-44D6-90A2-F5B2CDBD5AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D49B7F-EEB6-40EA-A934-BFC79C52E091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2184" yWindow="-11460" windowWidth="17280" windowHeight="8880" xr2:uid="{1EF1643A-7AA0-467F-ADB9-765D708F41F3}"/>
+    <workbookView xWindow="576" yWindow="-13068" windowWidth="23256" windowHeight="12456" xr2:uid="{1EF1643A-7AA0-467F-ADB9-765D708F41F3}"/>
   </bookViews>
   <sheets>
     <sheet name="経費一覧" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>社員番号</t>
     <rPh sb="0" eb="2">
@@ -520,7 +520,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -577,9 +577,6 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>22</v>
-      </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -611,7 +608,9 @@
       <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1">
+        <v>43743</v>
+      </c>
       <c r="D6">
         <v>180</v>
       </c>
@@ -633,6 +632,9 @@
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>98</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
       </c>
       <c r="C8" s="1">
         <v>43727</v>
